--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GITHUB\uart-ros-publish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AA02FCD-88A6-4D87-9221-490126E5E058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DC4AB6-CE2C-4CA9-8164-FE3E137734F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81FB538B-1CE6-4E81-8630-2D6B7156C771}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81FB538B-1CE6-4E81-8630-2D6B7156C771}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>STATUS</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>temp * 100</t>
+  </si>
+  <si>
+    <t>HUM</t>
+  </si>
+  <si>
+    <t>Humidity * 10</t>
   </si>
 </sst>
 </file>
@@ -551,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871F2FB5-E375-4C86-A372-17DF57DC6AF6}">
-  <dimension ref="A2:K35"/>
+  <dimension ref="A2:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,15 +907,36 @@
         <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>9</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="B35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>10</v>
       </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="B36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
